--- a/Docs/TimeLine.xlsx
+++ b/Docs/TimeLine.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\GitHub\roots\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>ACTIVITY</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>Software Requirement Specification</t>
+  </si>
+  <si>
+    <t>Third Northwood Meeting</t>
   </si>
 </sst>
 </file>
@@ -358,7 +361,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -437,15 +440,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -510,7 +504,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -578,9 +572,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
@@ -662,7 +653,35 @@
     <cellStyle name="Project Headers" xfId="4"/>
     <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="26">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -677,6 +696,91 @@
           <color theme="9" tint="-0.24994659260841701"/>
         </right>
         <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
           <color theme="7"/>
         </bottom>
         <vertical/>
@@ -690,6 +794,119 @@
         </top>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1049,34 +1266,34 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BZ23"/>
+  <dimension ref="A1:CD23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="43" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A8" sqref="A8"/>
+      <pane xSplit="5" topLeftCell="AG1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CD8" sqref="CD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="57.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" style="1" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="27.88671875" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="72.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="35.109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" style="4" customWidth="1"/>
     <col min="7" max="26" width="5.77734375" style="1" customWidth="1"/>
     <col min="27" max="67" width="5.77734375" customWidth="1"/>
     <col min="68" max="69" width="4.77734375" customWidth="1"/>
-    <col min="70" max="78" width="5.77734375" customWidth="1"/>
+    <col min="70" max="82" width="5.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" ht="60" customHeight="1" x14ac:dyDescent="1">
+    <row r="1" spans="1:82" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
       <c r="A1" s="10"/>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>23</v>
       </c>
       <c r="G1" s="21"/>
@@ -1096,79 +1313,79 @@
       <c r="U1" s="21"/>
       <c r="V1" s="21"/>
     </row>
-    <row r="2" spans="1:78" ht="21" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="25" t="s">
+    <row r="2" spans="1:82" ht="34.799999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="24" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="11">
         <v>-9</v>
       </c>
       <c r="I2" s="12"/>
-      <c r="J2" s="35" t="s">
+      <c r="J2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="37"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="36"/>
       <c r="O2" s="13"/>
-      <c r="P2" s="35" t="s">
+      <c r="P2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="36"/>
       <c r="T2" s="14"/>
-      <c r="U2" s="27" t="s">
+      <c r="U2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="39"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="38"/>
       <c r="Y2" s="15"/>
-      <c r="Z2" s="40" t="s">
+      <c r="Z2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="42"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="41"/>
       <c r="AG2" s="16"/>
-      <c r="AH2" s="27" t="s">
+      <c r="AH2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="AI2" s="28"/>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="28"/>
-      <c r="AM2" s="28"/>
-      <c r="AN2" s="28"/>
-      <c r="AO2" s="28"/>
+      <c r="AI2" s="27"/>
+      <c r="AJ2" s="27"/>
+      <c r="AK2" s="27"/>
+      <c r="AL2" s="27"/>
+      <c r="AM2" s="27"/>
+      <c r="AN2" s="27"/>
+      <c r="AO2" s="27"/>
     </row>
-    <row r="3" spans="1:78" s="8" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:82" s="8" customFormat="1" ht="61.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="33" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="17">
@@ -1384,14 +1601,29 @@
       <c r="BY3" s="17">
         <v>43061</v>
       </c>
+      <c r="BZ3" s="17">
+        <v>43062</v>
+      </c>
+      <c r="CA3" s="17">
+        <v>43063</v>
+      </c>
+      <c r="CB3" s="17">
+        <v>43064</v>
+      </c>
+      <c r="CC3" s="17">
+        <v>43065</v>
+      </c>
+      <c r="CD3" s="17">
+        <v>43066</v>
+      </c>
     </row>
-    <row r="4" spans="1:78" ht="23.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="34"/>
+    <row r="4" spans="1:82" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="30"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="33"/>
       <c r="G4" s="19">
         <v>1</v>
       </c>
@@ -1605,9 +1837,23 @@
       <c r="BY4" s="3">
         <v>71</v>
       </c>
-      <c r="BZ4" s="3"/>
+      <c r="BZ4" s="3">
+        <v>72</v>
+      </c>
+      <c r="CA4" s="3">
+        <v>73</v>
+      </c>
+      <c r="CB4" s="3">
+        <v>74</v>
+      </c>
+      <c r="CC4" s="3">
+        <v>75</v>
+      </c>
+      <c r="CD4" s="3">
+        <v>76</v>
+      </c>
     </row>
-    <row r="5" spans="1:78" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:82" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
         <v>12</v>
       </c>
@@ -1628,7 +1874,7 @@
       </c>
       <c r="G5" s="20"/>
     </row>
-    <row r="6" spans="1:78" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:82" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
         <v>13</v>
       </c>
@@ -1649,7 +1895,7 @@
       </c>
       <c r="G6" s="20"/>
     </row>
-    <row r="7" spans="1:78" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:82" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
         <v>24</v>
       </c>
@@ -1670,7 +1916,7 @@
       </c>
       <c r="G7" s="20"/>
     </row>
-    <row r="8" spans="1:78" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:82" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
         <v>29</v>
       </c>
@@ -1691,7 +1937,7 @@
       </c>
       <c r="G8" s="20"/>
     </row>
-    <row r="9" spans="1:78" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:82" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
         <v>14</v>
       </c>
@@ -1712,7 +1958,7 @@
       </c>
       <c r="G9" s="20"/>
     </row>
-    <row r="10" spans="1:78" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:82" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
         <v>15</v>
       </c>
@@ -1733,7 +1979,7 @@
       </c>
       <c r="G10" s="20"/>
     </row>
-    <row r="11" spans="1:78" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:82" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
         <v>20</v>
       </c>
@@ -1754,7 +2000,7 @@
       </c>
       <c r="G11" s="20"/>
     </row>
-    <row r="12" spans="1:78" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:82" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
         <v>21</v>
       </c>
@@ -1775,7 +2021,7 @@
       </c>
       <c r="G12" s="20"/>
     </row>
-    <row r="13" spans="1:78" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:82" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
         <v>26</v>
       </c>
@@ -1796,7 +2042,7 @@
       </c>
       <c r="G13" s="20"/>
     </row>
-    <row r="14" spans="1:78" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:82" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
         <v>28</v>
       </c>
@@ -1817,7 +2063,7 @@
       </c>
       <c r="G14" s="20"/>
     </row>
-    <row r="15" spans="1:78" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:82" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
         <v>16</v>
       </c>
@@ -1838,7 +2084,7 @@
       </c>
       <c r="G15" s="20"/>
     </row>
-    <row r="16" spans="1:78" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:82" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
         <v>17</v>
       </c>
@@ -1859,7 +2105,7 @@
       </c>
       <c r="G16" s="20"/>
     </row>
-    <row r="17" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="18" t="s">
         <v>18</v>
       </c>
@@ -1880,7 +2126,7 @@
       </c>
       <c r="G17" s="20"/>
     </row>
-    <row r="18" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="18" t="s">
         <v>25</v>
       </c>
@@ -1901,7 +2147,7 @@
       </c>
       <c r="G18" s="20"/>
     </row>
-    <row r="19" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="18" t="s">
         <v>27</v>
       </c>
@@ -1922,7 +2168,7 @@
       </c>
       <c r="G19" s="20"/>
     </row>
-    <row r="20" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="18" t="s">
         <v>22</v>
       </c>
@@ -1943,53 +2189,51 @@
       </c>
       <c r="G20" s="20"/>
     </row>
-    <row r="21" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="18" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B21" s="5">
         <v>69</v>
       </c>
       <c r="C21" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D21" s="5">
         <v>69</v>
       </c>
       <c r="E21" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21" s="6">
         <v>0</v>
       </c>
       <c r="G21" s="20"/>
     </row>
-    <row r="22" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="18"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+    <row r="22" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="5">
+        <v>69</v>
+      </c>
+      <c r="C22" s="5">
+        <v>3</v>
+      </c>
+      <c r="D22" s="5">
+        <v>69</v>
+      </c>
+      <c r="E22" s="5">
+        <v>3</v>
+      </c>
       <c r="F22" s="6">
         <v>0</v>
       </c>
       <c r="G22" s="20"/>
-      <c r="BN22" s="26"/>
-      <c r="BO22" s="22"/>
-      <c r="BP22" s="22"/>
-      <c r="BQ22" s="22"/>
-      <c r="BR22" s="22"/>
-      <c r="BS22" s="22"/>
-      <c r="BT22" s="22"/>
-      <c r="BU22" s="22"/>
-      <c r="BV22" s="22"/>
-      <c r="BW22" s="22"/>
-      <c r="BX22" s="22"/>
-      <c r="BY22" s="22"/>
     </row>
-    <row r="23" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="AY23" s="26"/>
-      <c r="BO23" s="23"/>
+    <row r="23" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AY23" s="25"/>
+      <c r="BO23" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -2006,40 +2250,66 @@
     <mergeCell ref="U2:X2"/>
     <mergeCell ref="Z2:AF2"/>
   </mergeCells>
-  <conditionalFormatting sqref="G5:BZ22">
-    <cfRule type="expression" dxfId="9" priority="1">
+  <conditionalFormatting sqref="G5:CD20 G22:CD22">
+    <cfRule type="expression" dxfId="17" priority="9">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="16" priority="11">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="15" priority="12">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="5">
+    <cfRule type="expression" dxfId="14" priority="13">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="13" priority="14">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="12" priority="15">
       <formula>G$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="11">
+    <cfRule type="expression" dxfId="11" priority="19">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="12">
+    <cfRule type="expression" dxfId="10" priority="20">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:BN23">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:BZ4">
+  <conditionalFormatting sqref="G4:CD4">
+    <cfRule type="expression" dxfId="8" priority="16">
+      <formula>G$4=period_selected</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21:CD21">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="2">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="6">
+      <formula>G$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="7">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="0" priority="8">
-      <formula>G$4=period_selected</formula>
+      <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="15">
@@ -2051,7 +2321,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed" sqref="T2"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration beyond plan" sqref="Y2"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="AG2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Periods are charted from 1 to 60 starting from cell H4 to cell BO4 " sqref="G3 I3 K3 M3 O3 Q3 S3 U3 W3 Y3 AA3 AC3 AE3 AG3 AI3 AK3 AM3 AO3 AQ3 AS3 AU3 AW3 AY3 BA3 BC3 BE3 BG3 BI3 BK3 BM3 BO3 BQ3 BS3 BU3 BW3 BY3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Periods are charted from 1 to 60 starting from cell H4 to cell BO4 " sqref="G3 I3 K3 M3 O3 Q3 S3 U3 W3 Y3 AA3 AC3 AE3 AG3 AI3 AK3 AM3 AO3 AQ3 AS3 AU3 AW3 AY3 BA3 BC3 BE3 BG3 BI3 BK3 BM3 BO3 BQ3 BS3 BU3 BW3 BY3:BZ3 CB3 CD3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter activity in column B, starting with cell B5_x000a_" sqref="A3:A4"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan start period in column C, starting with cell C5" sqref="B3:B4"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan duration period in column D, starting with cell D5" sqref="C3:C4"/>

--- a/Docs/TimeLine.xlsx
+++ b/Docs/TimeLine.xlsx
@@ -653,7 +653,7 @@
     <cellStyle name="Project Headers" xfId="4"/>
     <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="18">
     <dxf>
       <fill>
         <patternFill>
@@ -794,119 +794,6 @@
         </top>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1268,18 +1155,18 @@
   </sheetPr>
   <dimension ref="A1:CD23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="43" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="AG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CD8" sqref="CD8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="42" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="72.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="35.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="35.109375" style="1" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" style="4" customWidth="1"/>
     <col min="7" max="26" width="5.77734375" style="1" customWidth="1"/>
     <col min="27" max="67" width="5.77734375" customWidth="1"/>
@@ -1287,7 +1174,7 @@
     <col min="70" max="82" width="5.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
+    <row r="1" spans="1:82" ht="54.6" customHeight="1" x14ac:dyDescent="1">
       <c r="A1" s="10"/>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -1313,7 +1200,7 @@
       <c r="U1" s="21"/>
       <c r="V1" s="21"/>
     </row>
-    <row r="2" spans="1:82" ht="34.799999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:82" ht="51.6" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28"/>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -1369,7 +1256,7 @@
       <c r="AN2" s="27"/>
       <c r="AO2" s="27"/>
     </row>
-    <row r="3" spans="1:82" s="8" customFormat="1" ht="61.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:82" s="8" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>0</v>
       </c>
@@ -1617,7 +1504,7 @@
         <v>43066</v>
       </c>
     </row>
-    <row r="4" spans="1:82" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:82" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30"/>
       <c r="B4" s="32"/>
       <c r="C4" s="32"/>
@@ -2194,13 +2081,13 @@
         <v>30</v>
       </c>
       <c r="B21" s="5">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C21" s="5">
         <v>1</v>
       </c>
       <c r="D21" s="5">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E21" s="5">
         <v>1</v>
